--- a/docs/planning/Sprint3Burndown.xlsx
+++ b/docs/planning/Sprint3Burndown.xlsx
@@ -121,9 +121,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>273960</xdr:colOff>
+      <xdr:colOff>273600</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>76320</xdr:rowOff>
+      <xdr:rowOff>75960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -132,13 +132,13 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip r:embed="rId1"/>
-        <a:srcRect l="25783" t="47132" r="46091" b="15178"/>
+        <a:srcRect l="25787" t="47139" r="46096" b="15181"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1490760" y="573840"/>
-          <a:ext cx="5295600" cy="3891600"/>
+          <a:off x="1491840" y="573840"/>
+          <a:ext cx="5304240" cy="3891240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -148,6 +148,48 @@
         </a:ln>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>235800</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>9360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>108000</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>143640</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1" name="Line 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4312440" y="2935440"/>
+          <a:ext cx="687600" cy="621720"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="27360">
+          <a:solidFill>
+            <a:srgbClr val="008000"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -161,10 +203,10 @@
   <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N20" activeCellId="0" sqref="N20"/>
+      <selection pane="topLeft" activeCell="F34" activeCellId="0" sqref="F34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1"/>
